--- a/results/optimized_binary/20251124_232508_ana_optimized_binary_rundersampler/20251124_232508_ana_optimized_binary_rundersampler_importancia_consolidada.xlsx
+++ b/results/optimized_binary/20251124_232508_ana_optimized_binary_rundersampler/20251124_232508_ana_optimized_binary_rundersampler_importancia_consolidada.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,6 +601,29 @@
       </c>
       <c r="G6" t="n">
         <v>0.0182</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.84152</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08866</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01668</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02158</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03158</v>
       </c>
     </row>
   </sheetData>
@@ -614,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,6 +865,38 @@
       </c>
       <c r="J6" t="n">
         <v>0.0021</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.56786</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.20338</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.06760000000000002</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.05476</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0241</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0378</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0265</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01806</v>
       </c>
     </row>
   </sheetData>
@@ -855,7 +910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1123,6 +1178,44 @@
       </c>
       <c r="L6" t="n">
         <v>0.0513</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.1283</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.33574</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.20738</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.05422</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.02745999999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.03924</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.02384</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.14156</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.02366</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1324,6 +1417,32 @@
       </c>
       <c r="H6" t="n">
         <v>0.07729999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.46916</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04514</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.24954</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1163</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.08031999999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.03957999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1545,6 +1664,35 @@
       </c>
       <c r="I6" t="n">
         <v>0.1629</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.25144</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05236</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.39208</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02706</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01446</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.19492</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.06763999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +1706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1726,6 +1874,29 @@
       </c>
       <c r="G6" t="n">
         <v>0.0737</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.7404999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06917999999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.03756</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04176</v>
       </c>
     </row>
   </sheetData>
@@ -1739,7 +1910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1887,6 +2058,26 @@
       </c>
       <c r="F6" t="n">
         <v>0.0029</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.9896200000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0051</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.00198</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.00326</v>
       </c>
     </row>
   </sheetData>
@@ -1900,7 +2091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2108,6 +2299,35 @@
       </c>
       <c r="I6" t="n">
         <v>0.007900000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.6751</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.22592</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.02922</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02512</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01616</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.018</v>
       </c>
     </row>
   </sheetData>
@@ -2121,7 +2341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2351,6 +2571,38 @@
         <v>0.0762</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.2009</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.08639999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.05706</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0519</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.12092</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.03104</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.05576</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
